--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A024218-C95D-4A68-A28F-916FE21F8849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FCA879-7233-4410-AD34-7592CFF49574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -461,6 +452,102 @@
     <t>ユーザーテーブルの作成</t>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋枝</t>
+    <rPh sb="0" eb="2">
+      <t>アキエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荻原</t>
+    <rPh sb="0" eb="2">
+      <t>オギハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重森</t>
+    <rPh sb="0" eb="2">
+      <t>シゲモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがDBにユーザーネームを登録する機能</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがDBにアドレスを登録する機能</t>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがDBにパスワードを登録する機能</t>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBにユーザーテーブルを作成</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面のデザイン</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア順にランキングを表示する機能</t>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング画面のデザイン</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上野</t>
+    <rPh sb="0" eb="2">
+      <t>ウエノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野村</t>
+    <rPh sb="0" eb="2">
+      <t>ノムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -870,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -985,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1040,7 +1127,9 @@
         <v>27</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
@@ -1052,7 +1141,9 @@
         <v>30</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
@@ -1064,7 +1155,9 @@
         <v>31</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
@@ -1076,7 +1169,9 @@
         <v>32</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
     </row>
@@ -1088,81 +1183,11 @@
         <v>33</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="40.799999999999997" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.799999999999997" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1176,7 +1201,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1299,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419FC819-EA7E-4FCE-9995-E10E6FB59102}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1312,10 +1337,11 @@
     <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:6" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1350,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:6" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1337,83 +1363,72 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
-      <c r="B3" s="8"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1424,23 +1439,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="14.3984375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:6" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1465,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:6" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1462,9 +1478,14 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1472,90 +1493,81 @@
         <v>38</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FCA879-7233-4410-AD34-7592CFF49574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C70137-6D12-438F-8C8C-56B5D2205CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -548,6 +548,20 @@
     <t>野村</t>
     <rPh sb="0" eb="2">
       <t>ノムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施中</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -643,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -673,6 +687,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1130,8 +1150,12 @@
       <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -1144,8 +1168,12 @@
       <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -1158,8 +1186,12 @@
       <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1172,8 +1204,12 @@
       <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1186,8 +1222,12 @@
       <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1441,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C70137-6D12-438F-8C8C-56B5D2205CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B029321-B0DF-408F-8513-9ACC7DE92E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -562,6 +573,16 @@
     <t>実施中</t>
     <rPh sb="0" eb="3">
       <t>ジッシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荻原・重森</t>
+    <rPh sb="0" eb="2">
+      <t>オギハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゲモリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -683,16 +704,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,13 +1002,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.4140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -995,10 +1016,10 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1094,17 +1115,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -1153,7 +1174,7 @@
       <c r="E3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0.8</v>
       </c>
     </row>
@@ -1171,11 +1192,11 @@
       <c r="E4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:6" ht="40.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1189,7 +1210,7 @@
       <c r="E5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1207,7 +1228,7 @@
       <c r="E6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0.8</v>
       </c>
     </row>
@@ -1225,7 +1246,7 @@
       <c r="E7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>0.8</v>
       </c>
     </row>
@@ -1240,17 +1261,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1370,13 +1391,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -1481,18 +1502,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4140625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1534,9 +1555,11 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
@@ -1550,7 +1573,9 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1">
@@ -1564,7 +1589,9 @@
       <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
@@ -1578,7 +1605,9 @@
       <c r="D6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
@@ -1606,7 +1635,9 @@
       <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
   </sheetData>
@@ -1621,7 +1652,7 @@
   <dimension ref="E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B029321-B0DF-408F-8513-9ACC7DE92E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12268C-5BE0-4813-BB18-770A751DF0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1002,13 +991,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.4140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1119,13 +1108,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -1196,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.25" customHeight="1">
+    <row r="5" spans="1:6" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1265,13 +1254,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1387,17 +1376,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419FC819-EA7E-4FCE-9995-E10E6FB59102}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -1456,7 +1445,9 @@
       <c r="D4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1">
@@ -1502,18 +1493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12268C-5BE0-4813-BB18-770A751DF0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57884032-F8AF-4195-A6E8-7F61B03C5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1376,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419FC819-EA7E-4FCE-9995-E10E6FB59102}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1493,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1612,7 +1621,9 @@
       <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57884032-F8AF-4195-A6E8-7F61B03C5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85497420-3ED8-4DA4-A604-E7C192BDD97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,9 @@
     <sheet name="スプリント計画（機能２）" sheetId="7" r:id="rId3"/>
     <sheet name="スプリント計画（機能3）" sheetId="10" r:id="rId4"/>
     <sheet name="スプリント計画（機能4)" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'スプリント計画（機能4)'!$A$2:$F$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -571,16 +571,6 @@
     <t>実施中</t>
     <rPh sb="0" eb="3">
       <t>ジッシチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荻原・重森</t>
-    <rPh sb="0" eb="2">
-      <t>オギハラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シゲモリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -676,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -712,6 +702,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1502,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1547,43 +1540,47 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
+      <c r="A3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
@@ -1596,10 +1593,10 @@
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -1608,62 +1605,48 @@
       <c r="E6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F8" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F8">
+      <sortCondition ref="E2:E8"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D5033D-28A8-49A0-9159-73F728EC1EF6}">
-  <dimension ref="E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="2" spans="5:5">
-      <c r="E2" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85497420-3ED8-4DA4-A604-E7C192BDD97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9052FD5-95F5-44D6-9BE0-1D48AB9CC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
+    <sheet name="スプリントバックログ (第３スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId2"/>
     <sheet name="スプリント計画（機能２）" sheetId="7" r:id="rId3"/>
     <sheet name="スプリント計画（機能3）" sheetId="10" r:id="rId4"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'スプリント計画（機能4)'!$A$2:$F$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第３スプリント)'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -540,13 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング画面のデザイン</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上野</t>
     <rPh sb="0" eb="2">
       <t>ウエノ</t>
@@ -571,6 +564,141 @@
     <t>実施中</t>
     <rPh sb="0" eb="3">
       <t>ジッシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー文の表示</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーネームやパスワードの文字数が足りないなどのエラー文の表示</t>
+    <rPh sb="14" eb="17">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景の変更</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瓜田</t>
+    <rPh sb="0" eb="2">
+      <t>ウリタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技のセット</t>
+    <rPh sb="0" eb="1">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育成画面の背景</t>
+    <rPh sb="5" eb="7">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４つのスキルを覚えさせる</t>
+    <rPh sb="7" eb="8">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１つの通常技をセットできる</t>
+    <rPh sb="3" eb="6">
+      <t>ツウジョウワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース上にユーザID、スコアのテーブル作成</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能の作成</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納されたデータを降順に表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景などを追加</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荻原・重森</t>
+    <rPh sb="0" eb="2">
+      <t>オギハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゲモリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -666,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -704,7 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,16 +1121,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.4140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1106,18 +1237,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1126,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第2スプリント)'!C3</f>
+        <f>'スプリントバックログ (第３スプリント)'!C3</f>
         <v>戦闘画面の修正</v>
       </c>
       <c r="C1" s="5"/>
@@ -1158,15 +1289,17 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
@@ -1176,30 +1309,34 @@
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>6</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:6" ht="40.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
       <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -1212,15 +1349,17 @@
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.8</v>
+        <v>52</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
@@ -1230,15 +1369,17 @@
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.8</v>
+        <v>52</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1250,33 +1391,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:6" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第2スプリント)'!C4</f>
+        <f>'スプリントバックログ (第３スプリント)'!C4</f>
         <v>育成画面の修正</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:6" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1289,83 +1430,136 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.9" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1378,17 +1572,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419FC819-EA7E-4FCE-9995-E10E6FB59102}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -1429,44 +1623,78 @@
       <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
@@ -1493,20 +1721,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4140625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1540,7 +1768,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1551,7 +1779,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -1564,12 +1792,14 @@
       <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -1582,14 +1812,18 @@
       <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1598,14 +1832,18 @@
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1614,14 +1852,18 @@
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -1630,14 +1872,44 @@
       <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F8" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
@@ -1645,6 +1917,14 @@
       <sortCondition ref="E2:E8"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="6">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9052FD5-95F5-44D6-9BE0-1D48AB9CC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80702A03-72DE-4B9B-9FD1-6C45409710DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第３スプリント)" sheetId="3" r:id="rId1"/>
@@ -1124,13 +1124,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.4140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1237,17 +1237,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.25" customHeight="1">
+    <row r="5" spans="1:6" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1397,13 +1397,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1572,17 +1572,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419FC819-EA7E-4FCE-9995-E10E6FB59102}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -1723,18 +1723,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EF35D-112A-49A4-96DD-48AF018466E3}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1774,7 +1774,9 @@
       <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1918,12 +1920,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="6">
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
